--- a/demo/导表/windres2.xlsx
+++ b/demo/导表/windres2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DAF8E5-70B7-4BC0-9112-E66C3C079B55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +726,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1298,10 +1297,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AL2" sqref="AL2:AL41"/>
     </sheetView>
   </sheetViews>
@@ -5980,7 +5979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/demo/导表/windres2.xlsx
+++ b/demo/导表/windres2.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="代码" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="158">
   <si>
     <t>X</t>
   </si>
@@ -480,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>turbine_capacity_each</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ongrid_power</t>
   </si>
   <si>
@@ -560,18 +557,6 @@
     <t>tTurE-S-33</t>
   </si>
   <si>
-    <t>tTurE-N-34</t>
-  </si>
-  <si>
-    <t>tTurE-N-35</t>
-  </si>
-  <si>
-    <t>tTurE-N-36</t>
-  </si>
-  <si>
-    <t>tTurE-N-37</t>
-  </si>
-  <si>
     <t>方案2</t>
   </si>
   <si>
@@ -583,22 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认信任系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TurE-1</t>
   </si>
   <si>
@@ -698,28 +667,11 @@
     <t>TurE-S-33</t>
   </si>
   <si>
-    <t>TurE-N-34</t>
-  </si>
-  <si>
-    <t>TurE-N-35</t>
-  </si>
-  <si>
-    <t>TurE-N-36</t>
-  </si>
-  <si>
-    <t>TurE-N-37</t>
-  </si>
-  <si>
-    <t>TurE-N-38</t>
-  </si>
-  <si>
-    <t>TurE-N-39</t>
-  </si>
-  <si>
-    <t>TurE-N-40</t>
-  </si>
-  <si>
     <t>tur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurbineCapacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL41"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1343,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -1439,30 +1391,30 @@
         <v>23</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F2" s="2">
         <v>37567435</v>
@@ -1540,7 +1492,7 @@
         <v>67</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF2" s="2">
         <v>681</v>
@@ -1558,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="AK2" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL2" s="24">
         <v>0.71</v>
@@ -1566,16 +1518,16 @@
     </row>
     <row r="3" spans="1:40">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4">
         <v>37567103</v>
@@ -1653,7 +1605,7 @@
         <v>225</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF3" s="4">
         <v>652</v>
@@ -1671,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="AK3" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL3" s="24">
         <v>0.71</v>
@@ -1679,16 +1631,16 @@
     </row>
     <row r="4" spans="1:40">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4">
         <v>37566634</v>
@@ -1766,7 +1718,7 @@
         <v>202</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="4">
         <v>652</v>
@@ -1784,7 +1736,7 @@
         <v>16</v>
       </c>
       <c r="AK4" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL4" s="24">
         <v>0.71</v>
@@ -1792,16 +1744,16 @@
     </row>
     <row r="5" spans="1:40">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F5" s="4">
         <v>37566539</v>
@@ -1879,7 +1831,7 @@
         <v>90</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="4">
         <v>493</v>
@@ -1897,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="AK5" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL5" s="24">
         <v>0.71</v>
@@ -1905,16 +1857,16 @@
     </row>
     <row r="6" spans="1:40">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4">
         <v>37566428</v>
@@ -1992,7 +1944,7 @@
         <v>90</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF6" s="4">
         <v>467</v>
@@ -2010,7 +1962,7 @@
         <v>16</v>
       </c>
       <c r="AK6" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL6" s="24">
         <v>0.71</v>
@@ -2018,16 +1970,16 @@
     </row>
     <row r="7" spans="1:40">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F7" s="4">
         <v>37566051</v>
@@ -2105,7 +2057,7 @@
         <v>270</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF7" s="4">
         <v>467</v>
@@ -2123,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="AK7" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL7" s="24">
         <v>0.71</v>
@@ -2131,16 +2083,16 @@
     </row>
     <row r="8" spans="1:40">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F8" s="4">
         <v>37566271</v>
@@ -2218,7 +2170,7 @@
         <v>90</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" s="4">
         <v>524</v>
@@ -2236,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="AK8" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL8" s="24">
         <v>0.71</v>
@@ -2244,16 +2196,16 @@
     </row>
     <row r="9" spans="1:40">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F9" s="4">
         <v>37564324</v>
@@ -2331,7 +2283,7 @@
         <v>135</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF9" s="4">
         <v>436</v>
@@ -2349,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="AK9" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL9" s="24">
         <v>0.71</v>
@@ -2357,16 +2309,16 @@
     </row>
     <row r="10" spans="1:40">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F10" s="4">
         <v>37564100</v>
@@ -2444,7 +2396,7 @@
         <v>135</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF10" s="4">
         <v>329</v>
@@ -2462,7 +2414,7 @@
         <v>16</v>
       </c>
       <c r="AK10" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL10" s="24">
         <v>0.71</v>
@@ -2470,16 +2422,16 @@
     </row>
     <row r="11" spans="1:40">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F11" s="4">
         <v>37564004</v>
@@ -2557,7 +2509,7 @@
         <v>157</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF11" s="4">
         <v>1044</v>
@@ -2575,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="AK11" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL11" s="24">
         <v>0.71</v>
@@ -2583,16 +2535,16 @@
     </row>
     <row r="12" spans="1:40">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F12" s="4">
         <v>37563771</v>
@@ -2670,7 +2622,7 @@
         <v>315</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF12" s="4">
         <v>329</v>
@@ -2688,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="AK12" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL12" s="24">
         <v>0.71</v>
@@ -2696,16 +2648,16 @@
     </row>
     <row r="13" spans="1:40">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4">
         <v>37563234</v>
@@ -2783,7 +2735,7 @@
         <v>315</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF13" s="4">
         <v>546</v>
@@ -2801,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="AK13" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL13" s="24">
         <v>0.71</v>
@@ -2809,16 +2761,16 @@
     </row>
     <row r="14" spans="1:40">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4">
         <v>37561099</v>
@@ -2896,7 +2848,7 @@
         <v>22</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF14" s="4">
         <v>922</v>
@@ -2914,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="AK14" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL14" s="24">
         <v>0.71</v>
@@ -2922,16 +2874,16 @@
     </row>
     <row r="15" spans="1:40">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F15" s="4">
         <v>37560633</v>
@@ -3009,7 +2961,7 @@
         <v>180</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF15" s="4">
         <v>819</v>
@@ -3027,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="AK15" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL15" s="24">
         <v>0.71</v>
@@ -3035,16 +2987,16 @@
     </row>
     <row r="16" spans="1:40">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F16" s="4">
         <v>37559832</v>
@@ -3122,7 +3074,7 @@
         <v>135</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF16" s="4">
         <v>494</v>
@@ -3140,7 +3092,7 @@
         <v>16</v>
       </c>
       <c r="AK16" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL16" s="24">
         <v>0.71</v>
@@ -3148,16 +3100,16 @@
     </row>
     <row r="17" spans="2:38">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F17" s="4">
         <v>37559344</v>
@@ -3235,7 +3187,7 @@
         <v>180</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF17" s="4">
         <v>494</v>
@@ -3253,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="AK17" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL17" s="24">
         <v>0.71</v>
@@ -3261,16 +3213,16 @@
     </row>
     <row r="18" spans="2:38">
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F18" s="4">
         <v>37558756</v>
@@ -3348,7 +3300,7 @@
         <v>135</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18" s="4">
         <v>361</v>
@@ -3366,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="AK18" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL18" s="24">
         <v>0.71</v>
@@ -3374,16 +3326,16 @@
     </row>
     <row r="19" spans="2:38">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F19" s="4">
         <v>37558409</v>
@@ -3461,7 +3413,7 @@
         <v>157</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="4">
         <v>361</v>
@@ -3479,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="AK19" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL19" s="24">
         <v>0.71</v>
@@ -3487,16 +3439,16 @@
     </row>
     <row r="20" spans="2:38">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F20" s="4">
         <v>37558014</v>
@@ -3574,7 +3526,7 @@
         <v>270</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF20" s="4">
         <v>414</v>
@@ -3592,7 +3544,7 @@
         <v>16</v>
       </c>
       <c r="AK20" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL20" s="24">
         <v>0.71</v>
@@ -3600,16 +3552,16 @@
     </row>
     <row r="21" spans="2:38">
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F21" s="4">
         <v>37557858</v>
@@ -3687,7 +3639,7 @@
         <v>157</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF21" s="4">
         <v>495</v>
@@ -3705,7 +3657,7 @@
         <v>16</v>
       </c>
       <c r="AK21" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL21" s="24">
         <v>0.71</v>
@@ -3713,16 +3665,16 @@
     </row>
     <row r="22" spans="2:38">
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F22" s="4">
         <v>37557668</v>
@@ -3800,7 +3752,7 @@
         <v>135</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF22" s="4">
         <v>502</v>
@@ -3818,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="AK22" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL22" s="24">
         <v>0.71</v>
@@ -3826,16 +3778,16 @@
     </row>
     <row r="23" spans="2:38" ht="15" thickBot="1">
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F23" s="6">
         <v>37557362</v>
@@ -3913,7 +3865,7 @@
         <v>135</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF23" s="6">
         <v>455</v>
@@ -3931,7 +3883,7 @@
         <v>16</v>
       </c>
       <c r="AK23" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL23" s="24">
         <v>0.71</v>
@@ -3939,16 +3891,16 @@
     </row>
     <row r="24" spans="2:38">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F24">
         <v>37556912</v>
@@ -4026,7 +3978,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF24">
         <v>429</v>
@@ -4044,7 +3996,7 @@
         <v>16</v>
       </c>
       <c r="AK24" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL24" s="24">
         <v>0.71</v>
@@ -4052,16 +4004,16 @@
     </row>
     <row r="25" spans="2:38">
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F25">
         <v>37556598</v>
@@ -4139,7 +4091,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF25">
         <v>429</v>
@@ -4157,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="AK25" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL25" s="24">
         <v>0.71</v>
@@ -4165,16 +4117,16 @@
     </row>
     <row r="26" spans="2:38">
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>37556315</v>
@@ -4252,7 +4204,7 @@
         <v>180</v>
       </c>
       <c r="AE26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26">
         <v>483</v>
@@ -4270,7 +4222,7 @@
         <v>16</v>
       </c>
       <c r="AK26" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL26" s="24">
         <v>0.71</v>
@@ -4278,16 +4230,16 @@
     </row>
     <row r="27" spans="2:38">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F27">
         <v>37555632</v>
@@ -4365,7 +4317,7 @@
         <v>247</v>
       </c>
       <c r="AE27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF27">
         <v>730</v>
@@ -4383,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="AK27" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL27" s="24">
         <v>0.71</v>
@@ -4391,16 +4343,16 @@
     </row>
     <row r="28" spans="2:38">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F28">
         <v>37554642</v>
@@ -4478,7 +4430,7 @@
         <v>337</v>
       </c>
       <c r="AE28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF28">
         <v>431</v>
@@ -4496,7 +4448,7 @@
         <v>16</v>
       </c>
       <c r="AK28" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL28" s="24">
         <v>0.71</v>
@@ -4504,16 +4456,16 @@
     </row>
     <row r="29" spans="2:38" ht="14.25" customHeight="1">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F29">
         <v>37554313</v>
@@ -4591,7 +4543,7 @@
         <v>180</v>
       </c>
       <c r="AE29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF29">
         <v>416</v>
@@ -4609,7 +4561,7 @@
         <v>16</v>
       </c>
       <c r="AK29" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL29" s="24">
         <v>0.71</v>
@@ -4617,16 +4569,16 @@
     </row>
     <row r="30" spans="2:38">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>37553910</v>
@@ -4704,7 +4656,7 @@
         <v>157</v>
       </c>
       <c r="AE30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF30">
         <v>416</v>
@@ -4722,7 +4674,7 @@
         <v>16</v>
       </c>
       <c r="AK30" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL30" s="24">
         <v>0.71</v>
@@ -4730,16 +4682,16 @@
     </row>
     <row r="31" spans="2:38">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F31">
         <v>37552485</v>
@@ -4817,7 +4769,7 @@
         <v>270</v>
       </c>
       <c r="AE31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF31">
         <v>1184</v>
@@ -4835,7 +4787,7 @@
         <v>16</v>
       </c>
       <c r="AK31" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL31" s="24">
         <v>0.71</v>
@@ -4843,16 +4795,16 @@
     </row>
     <row r="32" spans="2:38">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F32">
         <v>37551303</v>
@@ -4930,7 +4882,7 @@
         <v>180</v>
       </c>
       <c r="AE32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF32">
         <v>435</v>
@@ -4948,7 +4900,7 @@
         <v>16</v>
       </c>
       <c r="AK32" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL32" s="24">
         <v>0.71</v>
@@ -4956,16 +4908,16 @@
     </row>
     <row r="33" spans="2:38">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F33">
         <v>37550869</v>
@@ -5043,7 +4995,7 @@
         <v>157</v>
       </c>
       <c r="AE33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF33">
         <v>391</v>
@@ -5061,7 +5013,7 @@
         <v>16</v>
       </c>
       <c r="AK33" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL33" s="24">
         <v>0.71</v>
@@ -5069,16 +5021,16 @@
     </row>
     <row r="34" spans="2:38">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F34">
         <v>37550569</v>
@@ -5156,7 +5108,7 @@
         <v>247</v>
       </c>
       <c r="AE34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF34">
         <v>391</v>
@@ -5174,802 +5126,38 @@
         <v>16</v>
       </c>
       <c r="AK34" s="24">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="AL34" s="24">
         <v>0.71</v>
       </c>
     </row>
     <row r="35" spans="2:38">
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35">
-        <v>37557952</v>
-      </c>
-      <c r="G35">
-        <v>2550398</v>
-      </c>
-      <c r="H35">
-        <v>884.9</v>
-      </c>
-      <c r="I35">
-        <v>90</v>
-      </c>
-      <c r="J35">
-        <v>111.565471130772</v>
-      </c>
-      <c r="K35">
-        <v>23.0519073022421</v>
-      </c>
-      <c r="L35" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35">
-        <v>6.52</v>
-      </c>
-      <c r="N35">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="O35">
-        <v>197</v>
-      </c>
-      <c r="P35">
-        <v>8886.6200000000008</v>
-      </c>
-      <c r="Q35">
-        <v>8456.58</v>
-      </c>
-      <c r="R35">
-        <v>0.41</v>
-      </c>
-      <c r="S35">
-        <v>5.79</v>
-      </c>
-      <c r="T35">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="U35">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="V35">
-        <v>5.66</v>
-      </c>
-      <c r="W35">
-        <v>-4.8</v>
-      </c>
-      <c r="X35">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="Y35">
-        <v>0.04</v>
-      </c>
-      <c r="Z35">
-        <v>0.09</v>
-      </c>
-      <c r="AA35">
-        <v>247</v>
-      </c>
-      <c r="AB35">
-        <v>2.4</v>
-      </c>
-      <c r="AC35">
-        <v>3.5</v>
-      </c>
-      <c r="AD35">
-        <v>337</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF35">
-        <v>462</v>
-      </c>
-      <c r="AG35">
-        <v>145</v>
-      </c>
-      <c r="AH35">
-        <v>3.2</v>
-      </c>
-      <c r="AI35">
-        <v>76</v>
-      </c>
-      <c r="AJ35">
-        <v>16</v>
-      </c>
-      <c r="AK35" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL35" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
     </row>
     <row r="36" spans="2:38">
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36">
-        <v>37558400</v>
-      </c>
-      <c r="G36">
-        <v>2550511</v>
-      </c>
-      <c r="H36">
-        <v>825</v>
-      </c>
-      <c r="I36">
-        <v>90</v>
-      </c>
-      <c r="J36">
-        <v>111.569846653241</v>
-      </c>
-      <c r="K36">
-        <v>23.052911922687301</v>
-      </c>
-      <c r="L36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36">
-        <v>6.1</v>
-      </c>
-      <c r="N36">
-        <v>2.1819999999999999</v>
-      </c>
-      <c r="O36">
-        <v>164.9</v>
-      </c>
-      <c r="P36">
-        <v>7844.43</v>
-      </c>
-      <c r="Q36">
-        <v>7551.74</v>
-      </c>
-      <c r="R36">
-        <v>0.36</v>
-      </c>
-      <c r="S36">
-        <v>5.41</v>
-      </c>
-      <c r="T36">
-        <v>0.11</v>
-      </c>
-      <c r="U36">
-        <v>0.11</v>
-      </c>
-      <c r="V36">
-        <v>5.32</v>
-      </c>
-      <c r="W36">
-        <v>-3.7</v>
-      </c>
-      <c r="X36">
-        <v>1.099</v>
-      </c>
-      <c r="Y36">
-        <v>0.06</v>
-      </c>
-      <c r="Z36">
-        <v>0.22</v>
-      </c>
-      <c r="AA36">
-        <v>270</v>
-      </c>
-      <c r="AB36">
-        <v>3.3</v>
-      </c>
-      <c r="AC36">
-        <v>5.7</v>
-      </c>
-      <c r="AD36">
-        <v>67</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF36">
-        <v>462</v>
-      </c>
-      <c r="AG36">
-        <v>145</v>
-      </c>
-      <c r="AH36">
-        <v>3.2</v>
-      </c>
-      <c r="AI36">
-        <v>256</v>
-      </c>
-      <c r="AJ36">
-        <v>16</v>
-      </c>
-      <c r="AK36" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL36" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
     </row>
     <row r="37" spans="2:38">
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37">
-        <v>37559723</v>
-      </c>
-      <c r="G37">
-        <v>2551956</v>
-      </c>
-      <c r="H37">
-        <v>748.5</v>
-      </c>
-      <c r="I37">
-        <v>90</v>
-      </c>
-      <c r="J37">
-        <v>111.582811688212</v>
-      </c>
-      <c r="K37">
-        <v>23.0659122045261</v>
-      </c>
-      <c r="L37" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37">
-        <v>6.11</v>
-      </c>
-      <c r="N37">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="O37">
-        <v>164.8</v>
-      </c>
-      <c r="P37">
-        <v>7982.93</v>
-      </c>
-      <c r="Q37">
-        <v>7818.62</v>
-      </c>
-      <c r="R37">
-        <v>0.36</v>
-      </c>
-      <c r="S37">
-        <v>5.42</v>
-      </c>
-      <c r="T37">
-        <v>0.1</v>
-      </c>
-      <c r="U37">
-        <v>0.1</v>
-      </c>
-      <c r="V37">
-        <v>5.37</v>
-      </c>
-      <c r="W37">
-        <v>-2.1</v>
-      </c>
-      <c r="X37">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="Y37">
-        <v>0.06</v>
-      </c>
-      <c r="Z37">
-        <v>0.13</v>
-      </c>
-      <c r="AA37">
-        <v>315</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AC37">
-        <v>5.5</v>
-      </c>
-      <c r="AD37">
-        <v>67</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF37">
-        <v>568</v>
-      </c>
-      <c r="AG37">
-        <v>145</v>
-      </c>
-      <c r="AH37">
-        <v>3.9</v>
-      </c>
-      <c r="AI37">
-        <v>334</v>
-      </c>
-      <c r="AJ37">
-        <v>16</v>
-      </c>
-      <c r="AK37" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL37" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
     </row>
     <row r="38" spans="2:38">
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38">
-        <v>37559474</v>
-      </c>
-      <c r="G38">
-        <v>2552467</v>
-      </c>
-      <c r="H38">
-        <v>728.4</v>
-      </c>
-      <c r="I38">
-        <v>90</v>
-      </c>
-      <c r="J38">
-        <v>111.580401690936</v>
-      </c>
-      <c r="K38">
-        <v>23.0705351136757</v>
-      </c>
-      <c r="L38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38">
-        <v>5.81</v>
-      </c>
-      <c r="N38">
-        <v>2.177</v>
-      </c>
-      <c r="O38">
-        <v>143.6</v>
-      </c>
-      <c r="P38">
-        <v>7160.45</v>
-      </c>
-      <c r="Q38">
-        <v>6673.14</v>
-      </c>
-      <c r="R38">
-        <v>0.33</v>
-      </c>
-      <c r="S38">
-        <v>5.15</v>
-      </c>
-      <c r="T38">
-        <v>0.107</v>
-      </c>
-      <c r="U38">
-        <v>0.108</v>
-      </c>
-      <c r="V38">
-        <v>4.99</v>
-      </c>
-      <c r="W38">
-        <v>-6.8</v>
-      </c>
-      <c r="X38">
-        <v>1.111</v>
-      </c>
-      <c r="Y38">
-        <v>0.09</v>
-      </c>
-      <c r="Z38">
-        <v>0.16</v>
-      </c>
-      <c r="AA38">
-        <v>180</v>
-      </c>
-      <c r="AB38">
-        <v>2.8</v>
-      </c>
-      <c r="AC38">
-        <v>5.5</v>
-      </c>
-      <c r="AD38">
-        <v>45</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF38">
-        <v>568</v>
-      </c>
-      <c r="AG38">
-        <v>145</v>
-      </c>
-      <c r="AH38">
-        <v>3.9</v>
-      </c>
-      <c r="AI38">
-        <v>154</v>
-      </c>
-      <c r="AJ38">
-        <v>16</v>
-      </c>
-      <c r="AK38" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL38" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
     </row>
     <row r="39" spans="2:38">
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39">
-        <v>37558707</v>
-      </c>
-      <c r="G39">
-        <v>2552362</v>
-      </c>
-      <c r="H39">
-        <v>724.7</v>
-      </c>
-      <c r="I39">
-        <v>90</v>
-      </c>
-      <c r="J39">
-        <v>111.572912879283</v>
-      </c>
-      <c r="K39">
-        <v>23.069614351841</v>
-      </c>
-      <c r="L39" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39">
-        <v>5.51</v>
-      </c>
-      <c r="N39">
-        <v>2.157</v>
-      </c>
-      <c r="O39">
-        <v>126.6</v>
-      </c>
-      <c r="P39">
-        <v>6293.21</v>
-      </c>
-      <c r="Q39">
-        <v>6050.99</v>
-      </c>
-      <c r="R39">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S39">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="T39">
-        <v>0.113</v>
-      </c>
-      <c r="U39">
-        <v>0.113</v>
-      </c>
-      <c r="V39">
-        <v>4.8</v>
-      </c>
-      <c r="W39">
-        <v>-3.8</v>
-      </c>
-      <c r="X39">
-        <v>1.111</v>
-      </c>
-      <c r="Y39">
-        <v>0.12</v>
-      </c>
-      <c r="Z39">
-        <v>0.2</v>
-      </c>
-      <c r="AA39">
-        <v>45</v>
-      </c>
-      <c r="AB39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AD39">
-        <v>337</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF39">
-        <v>774</v>
-      </c>
-      <c r="AG39">
-        <v>145</v>
-      </c>
-      <c r="AH39">
-        <v>5.3</v>
-      </c>
-      <c r="AI39">
-        <v>82</v>
-      </c>
-      <c r="AJ39">
-        <v>16</v>
-      </c>
-      <c r="AK39" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL39" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="24"/>
     </row>
     <row r="40" spans="2:38">
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40">
-        <v>37559315</v>
-      </c>
-      <c r="G40">
-        <v>2553645</v>
-      </c>
-      <c r="H40">
-        <v>753.4</v>
-      </c>
-      <c r="I40">
-        <v>90</v>
-      </c>
-      <c r="J40">
-        <v>111.578895610006</v>
-      </c>
-      <c r="K40">
-        <v>23.081177301957901</v>
-      </c>
-      <c r="L40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40">
-        <v>6.31</v>
-      </c>
-      <c r="N40">
-        <v>2.069</v>
-      </c>
-      <c r="O40">
-        <v>191.8</v>
-      </c>
-      <c r="P40">
-        <v>7882.6</v>
-      </c>
-      <c r="Q40">
-        <v>7707.26</v>
-      </c>
-      <c r="R40">
-        <v>0.36</v>
-      </c>
-      <c r="S40">
-        <v>5.6</v>
-      </c>
-      <c r="T40">
-        <v>7.8E-2</v>
-      </c>
-      <c r="U40">
-        <v>7.8E-2</v>
-      </c>
-      <c r="V40">
-        <v>5.56</v>
-      </c>
-      <c r="W40">
-        <v>-1.2</v>
-      </c>
-      <c r="X40">
-        <v>1.107</v>
-      </c>
-      <c r="Y40">
-        <v>0.08</v>
-      </c>
-      <c r="Z40">
-        <v>0.15</v>
-      </c>
-      <c r="AA40">
-        <v>180</v>
-      </c>
-      <c r="AB40">
-        <v>3.6</v>
-      </c>
-      <c r="AC40">
-        <v>6.8</v>
-      </c>
-      <c r="AD40">
-        <v>67</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF40">
-        <v>1525</v>
-      </c>
-      <c r="AG40">
-        <v>140</v>
-      </c>
-      <c r="AH40">
-        <v>10.9</v>
-      </c>
-      <c r="AI40">
-        <v>208</v>
-      </c>
-      <c r="AJ40">
-        <v>16</v>
-      </c>
-      <c r="AK40">
-        <v>2500</v>
-      </c>
-      <c r="AL40" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AL40" s="24"/>
     </row>
     <row r="41" spans="2:38">
-      <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41">
-        <v>37556430</v>
-      </c>
-      <c r="G41">
-        <v>2551008</v>
-      </c>
-      <c r="H41">
-        <v>818.8</v>
-      </c>
-      <c r="I41">
-        <v>90</v>
-      </c>
-      <c r="J41">
-        <v>111.550643035683</v>
-      </c>
-      <c r="K41">
-        <v>23.057467619895</v>
-      </c>
-      <c r="L41" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41">
-        <v>6.01</v>
-      </c>
-      <c r="N41">
-        <v>2.202</v>
-      </c>
-      <c r="O41">
-        <v>159.1</v>
-      </c>
-      <c r="P41">
-        <v>7532.19</v>
-      </c>
-      <c r="Q41">
-        <v>7363.4</v>
-      </c>
-      <c r="R41">
-        <v>0.34</v>
-      </c>
-      <c r="S41">
-        <v>5.33</v>
-      </c>
-      <c r="T41">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="U41">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="V41">
-        <v>5.28</v>
-      </c>
-      <c r="W41">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="X41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y41">
-        <v>0.06</v>
-      </c>
-      <c r="Z41">
-        <v>0.1</v>
-      </c>
-      <c r="AA41">
-        <v>135</v>
-      </c>
-      <c r="AB41">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AC41">
-        <v>4.8</v>
-      </c>
-      <c r="AD41">
-        <v>337</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF41">
-        <v>1640</v>
-      </c>
-      <c r="AG41">
-        <v>145</v>
-      </c>
-      <c r="AH41">
-        <v>11.3</v>
-      </c>
-      <c r="AI41">
-        <v>112</v>
-      </c>
-      <c r="AJ41">
-        <v>16</v>
-      </c>
-      <c r="AK41" s="24">
-        <v>2500</v>
-      </c>
-      <c r="AL41" s="24">
-        <v>0.71</v>
-      </c>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
